--- a/biology/Zoologie/Calosoma_auropunctatum/Calosoma_auropunctatum.xlsx
+++ b/biology/Zoologie/Calosoma_auropunctatum/Calosoma_auropunctatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calosoma auropunctatum, le calosome à points d'or, est une espèce d'insectes coléoptères prédateurs de la famille des carabidés.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Campalita auropunctatum (Herbst, 1784)</t>
         </is>
@@ -541,7 +555,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Corps noir long d'environ 18-30 mm, élytres noirs ornés de trois rangées de petits points verts dorés. Capable de voler; vient aux lumières.
 </t>
@@ -572,7 +588,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Localisé. Toute l'Europe (sauf Sud-Ouest, îles Britanniques et méditerranéennes), à l'Est jusqu'à l'Anatolie, l'Asie centrale, l'Ouest de la Chine, la Mongolie.
 </t>
@@ -603,7 +621,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'adulte peut voler; larves et adultes chassent préférentiellement la nuit, ils mangent les larves et les pupes de lépidoptères Noctuidés, mais mangent aussi d'autres petits arthropodes. Habitats ouverts plutôt secs: champs de céréales, vignes, jardins maraîchers. Présence: Avril-Octobre. Très raréfié dans le courant du XXe siècle.
 </t>
